--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H2">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I2">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J2">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N2">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O2">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P2">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q2">
-        <v>45.92783409283321</v>
+        <v>47.51351601577275</v>
       </c>
       <c r="R2">
-        <v>45.92783409283321</v>
+        <v>190.054064063091</v>
       </c>
       <c r="S2">
-        <v>0.02294167219652998</v>
+        <v>0.02230054404864623</v>
       </c>
       <c r="T2">
-        <v>0.02294167219652998</v>
+        <v>0.01338704436784456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H3">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I3">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J3">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N3">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O3">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P3">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q3">
-        <v>7.510733203265065</v>
+        <v>8.480684325157501</v>
       </c>
       <c r="R3">
-        <v>7.510733203265065</v>
+        <v>50.884105950945</v>
       </c>
       <c r="S3">
-        <v>0.003751728826502371</v>
+        <v>0.003980422629490443</v>
       </c>
       <c r="T3">
-        <v>0.003751728826502371</v>
+        <v>0.003584178993179934</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H4">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I4">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J4">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N4">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O4">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P4">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q4">
-        <v>95.58054982771991</v>
+        <v>100.9950202205885</v>
       </c>
       <c r="R4">
-        <v>95.58054982771991</v>
+        <v>605.9701213235311</v>
       </c>
       <c r="S4">
-        <v>0.04774398109171497</v>
+        <v>0.04740217281279473</v>
       </c>
       <c r="T4">
-        <v>0.04774398109171497</v>
+        <v>0.04268337506875582</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H5">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I5">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J5">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N5">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O5">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P5">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q5">
-        <v>143.6454655330959</v>
+        <v>147.742290827589</v>
       </c>
       <c r="R5">
-        <v>143.6454655330959</v>
+        <v>886.4537449655339</v>
       </c>
       <c r="S5">
-        <v>0.07175315901283645</v>
+        <v>0.06934307836437148</v>
       </c>
       <c r="T5">
-        <v>0.07175315901283645</v>
+        <v>0.06244010446393906</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H6">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I6">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J6">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N6">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O6">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P6">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q6">
-        <v>38.41464211315756</v>
+        <v>40.0119839522655</v>
       </c>
       <c r="R6">
-        <v>38.41464211315756</v>
+        <v>240.071903713593</v>
       </c>
       <c r="S6">
-        <v>0.0191887151727148</v>
+        <v>0.01877968808507069</v>
       </c>
       <c r="T6">
-        <v>0.0191887151727148</v>
+        <v>0.01691020522149895</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.55370627686317</v>
+        <v>1.5823545</v>
       </c>
       <c r="H7">
-        <v>1.55370627686317</v>
+        <v>3.164709</v>
       </c>
       <c r="I7">
-        <v>0.1698675821179442</v>
+        <v>0.1661335729656451</v>
       </c>
       <c r="J7">
-        <v>0.1698675821179442</v>
+        <v>0.1416028120206204</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N7">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O7">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P7">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q7">
-        <v>8.985355633256178</v>
+        <v>9.220522874582251</v>
       </c>
       <c r="R7">
-        <v>8.985355633256178</v>
+        <v>36.882091498329</v>
       </c>
       <c r="S7">
-        <v>0.004488325817645605</v>
+        <v>0.004327667025271554</v>
       </c>
       <c r="T7">
-        <v>0.004488325817645605</v>
+        <v>0.002597903905402036</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H8">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I8">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J8">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N8">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O8">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P8">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q8">
-        <v>76.36314471560173</v>
+        <v>84.30833839529583</v>
       </c>
       <c r="R8">
-        <v>76.36314471560173</v>
+        <v>505.850030371775</v>
       </c>
       <c r="S8">
-        <v>0.03814458636173505</v>
+        <v>0.03957025225050352</v>
       </c>
       <c r="T8">
-        <v>0.03814458636173505</v>
+        <v>0.03563110756639472</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H9">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I9">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J9">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N9">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O9">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P9">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q9">
-        <v>12.48792192904005</v>
+        <v>15.04818973345833</v>
       </c>
       <c r="R9">
-        <v>12.48792192904005</v>
+        <v>135.433707601125</v>
       </c>
       <c r="S9">
-        <v>0.006237912520168266</v>
+        <v>0.007062891702057417</v>
       </c>
       <c r="T9">
-        <v>0.006237912520168266</v>
+        <v>0.009539691042629209</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H10">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I10">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J10">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N10">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O10">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P10">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q10">
-        <v>158.9195637603538</v>
+        <v>179.2063196958639</v>
       </c>
       <c r="R10">
-        <v>158.9195637603538</v>
+        <v>1612.856877262775</v>
       </c>
       <c r="S10">
-        <v>0.07938281021561394</v>
+        <v>0.08411077018267249</v>
       </c>
       <c r="T10">
-        <v>0.07938281021561394</v>
+        <v>0.1136065502273734</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H11">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I11">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J11">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N11">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O11">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P11">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q11">
-        <v>238.8359845158793</v>
+        <v>262.1550265034833</v>
       </c>
       <c r="R11">
-        <v>238.8359845158793</v>
+        <v>2359.39523853135</v>
       </c>
       <c r="S11">
-        <v>0.1193023135910044</v>
+        <v>0.1230428771925492</v>
       </c>
       <c r="T11">
-        <v>0.1193023135910044</v>
+        <v>0.1661912829657523</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H12">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I12">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J12">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N12">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O12">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P12">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q12">
-        <v>63.87113463604091</v>
+        <v>70.99756376259167</v>
       </c>
       <c r="R12">
-        <v>63.87113463604091</v>
+        <v>638.978073863325</v>
       </c>
       <c r="S12">
-        <v>0.03190463174637571</v>
+        <v>0.03332281907970466</v>
       </c>
       <c r="T12">
-        <v>0.03190463174637571</v>
+        <v>0.04500839204390054</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.583311397307</v>
+        <v>2.807741666666667</v>
       </c>
       <c r="H13">
-        <v>2.583311397307</v>
+        <v>8.423225</v>
       </c>
       <c r="I13">
-        <v>0.2824348896911314</v>
+        <v>0.2947886551640917</v>
       </c>
       <c r="J13">
-        <v>0.2824348896911314</v>
+        <v>0.3768916340435692</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N13">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O13">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P13">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q13">
-        <v>14.93974244804544</v>
+        <v>16.3609647922875</v>
       </c>
       <c r="R13">
-        <v>14.93974244804544</v>
+        <v>98.165788753725</v>
       </c>
       <c r="S13">
-        <v>0.007462635256233996</v>
+        <v>0.00767904475660437</v>
       </c>
       <c r="T13">
-        <v>0.007462635256233996</v>
+        <v>0.006914610197518971</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H14">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I14">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J14">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N14">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O14">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P14">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q14">
-        <v>11.85183326571381</v>
+        <v>0.6603960083366667</v>
       </c>
       <c r="R14">
-        <v>11.85183326571381</v>
+        <v>3.96237605002</v>
       </c>
       <c r="S14">
-        <v>0.005920176273942001</v>
+        <v>0.0003099579132088033</v>
       </c>
       <c r="T14">
-        <v>0.005920176273942001</v>
+        <v>0.0002791021820301278</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H15">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I15">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J15">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N15">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O15">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P15">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q15">
-        <v>1.938170161659085</v>
+        <v>0.1178740397666667</v>
       </c>
       <c r="R15">
-        <v>1.938170161659085</v>
+        <v>1.0608663579</v>
       </c>
       <c r="S15">
-        <v>0.0009681463406265167</v>
+        <v>5.532436738918268E-05</v>
       </c>
       <c r="T15">
-        <v>0.0009681463406265167</v>
+        <v>7.472539496364815E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H16">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I16">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J16">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N16">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O16">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P16">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q16">
-        <v>24.66488486510526</v>
+        <v>1.403741794091111</v>
       </c>
       <c r="R16">
-        <v>24.66488486510526</v>
+        <v>12.63367614682</v>
       </c>
       <c r="S16">
-        <v>0.0123204961548295</v>
+        <v>0.0006588484359200579</v>
       </c>
       <c r="T16">
-        <v>0.0123204961548295</v>
+        <v>0.000889891957534329</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H17">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I17">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J17">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N17">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O17">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P17">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q17">
-        <v>37.06819928483745</v>
+        <v>2.053487666386666</v>
       </c>
       <c r="R17">
-        <v>37.06819928483745</v>
+        <v>18.48138899748</v>
       </c>
       <c r="S17">
-        <v>0.01851614589944466</v>
+        <v>0.0009638076908980108</v>
       </c>
       <c r="T17">
-        <v>0.01851614589944466</v>
+        <v>0.001301793653865394</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H18">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I18">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J18">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N18">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O18">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P18">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q18">
-        <v>9.91302860846765</v>
+        <v>0.5561313222733334</v>
       </c>
       <c r="R18">
-        <v>9.91302860846765</v>
+        <v>5.005181900459999</v>
       </c>
       <c r="S18">
-        <v>0.004951712992835787</v>
+        <v>0.0002610211175504528</v>
       </c>
       <c r="T18">
-        <v>0.004951712992835787</v>
+        <v>0.0003525554294295306</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.400939171223594</v>
+        <v>0.02199333333333333</v>
       </c>
       <c r="H19">
-        <v>0.400939171223594</v>
+        <v>0.06598</v>
       </c>
       <c r="I19">
-        <v>0.04383490535265584</v>
+        <v>0.002309110283499107</v>
       </c>
       <c r="J19">
-        <v>0.04383490535265584</v>
+        <v>0.002952231480720828</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N19">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O19">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P19">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q19">
-        <v>2.318701478132892</v>
+        <v>0.12815714373</v>
       </c>
       <c r="R19">
-        <v>2.318701478132892</v>
+        <v>0.76894286238</v>
       </c>
       <c r="S19">
-        <v>0.001158227690977379</v>
+        <v>6.015075853259959E-05</v>
       </c>
       <c r="T19">
-        <v>0.001158227690977379</v>
+        <v>5.416286289779766E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H20">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I20">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J20">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N20">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O20">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P20">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q20">
-        <v>136.2315202157177</v>
+        <v>14.1210542715615</v>
       </c>
       <c r="R20">
-        <v>136.2315202157177</v>
+        <v>84.726325629369</v>
       </c>
       <c r="S20">
-        <v>0.06804977725068993</v>
+        <v>0.006627739203550912</v>
       </c>
       <c r="T20">
-        <v>0.06804977725068993</v>
+        <v>0.005967960148162282</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H21">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I21">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J21">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N21">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O21">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P21">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q21">
-        <v>22.27839876244309</v>
+        <v>2.520466041195</v>
       </c>
       <c r="R21">
-        <v>22.27839876244309</v>
+        <v>22.684194370755</v>
       </c>
       <c r="S21">
-        <v>0.01112840898263268</v>
+        <v>0.001182984731252622</v>
       </c>
       <c r="T21">
-        <v>0.01112840898263268</v>
+        <v>0.001597831217065151</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H22">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I22">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J22">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N22">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O22">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P22">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q22">
-        <v>283.5118150741689</v>
+        <v>30.015799319481</v>
       </c>
       <c r="R22">
-        <v>283.5118150741689</v>
+        <v>270.142193875329</v>
       </c>
       <c r="S22">
-        <v>0.1416185904200904</v>
+        <v>0.01408796298420023</v>
       </c>
       <c r="T22">
-        <v>0.1416185904200904</v>
+        <v>0.01902829888360284</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H23">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I23">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J23">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N23">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O23">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P23">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q23">
-        <v>426.0823643917878</v>
+        <v>43.90912485383399</v>
       </c>
       <c r="R23">
-        <v>426.0823643917878</v>
+        <v>395.182123684506</v>
       </c>
       <c r="S23">
-        <v>0.2128348119539166</v>
+        <v>0.02060881734400321</v>
       </c>
       <c r="T23">
-        <v>0.2128348119539166</v>
+        <v>0.02783587211998436</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.60861637058564</v>
+        <v>0.4702770000000001</v>
       </c>
       <c r="H24">
-        <v>4.60861637058564</v>
+        <v>1.410831</v>
       </c>
       <c r="I24">
-        <v>0.5038626228382687</v>
+        <v>0.04937502834767095</v>
       </c>
       <c r="J24">
-        <v>0.5038626228382687</v>
+        <v>0.06312670039673911</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N24">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O24">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P24">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q24">
-        <v>113.94582821041</v>
+        <v>11.891593051443</v>
       </c>
       <c r="R24">
-        <v>113.94582821041</v>
+        <v>107.024337462987</v>
       </c>
       <c r="S24">
-        <v>0.05691772517906004</v>
+        <v>0.005581338046299226</v>
       </c>
       <c r="T24">
-        <v>0.05691772517906004</v>
+        <v>0.007538589406751957</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4702770000000001</v>
+      </c>
+      <c r="H25">
+        <v>1.410831</v>
+      </c>
+      <c r="I25">
+        <v>0.04937502834767095</v>
+      </c>
+      <c r="J25">
+        <v>0.06312670039673911</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.8270905</v>
+      </c>
+      <c r="N25">
+        <v>11.654181</v>
+      </c>
+      <c r="O25">
+        <v>0.0260493225301696</v>
+      </c>
+      <c r="P25">
+        <v>0.01834641465328899</v>
+      </c>
+      <c r="Q25">
+        <v>2.7403466390685</v>
+      </c>
+      <c r="R25">
+        <v>16.442079834411</v>
+      </c>
+      <c r="S25">
+        <v>0.001286186038364747</v>
+      </c>
+      <c r="T25">
+        <v>0.001158148621172518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.6422255</v>
+      </c>
+      <c r="H26">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J26">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>30.0270995</v>
+      </c>
+      <c r="N26">
+        <v>60.054199</v>
+      </c>
+      <c r="O26">
+        <v>0.1342326156631674</v>
+      </c>
+      <c r="P26">
+        <v>0.09453939633554115</v>
+      </c>
+      <c r="Q26">
+        <v>139.3925669899373</v>
+      </c>
+      <c r="R26">
+        <v>557.570267959749</v>
+      </c>
+      <c r="S26">
+        <v>0.06542412224725797</v>
+      </c>
+      <c r="T26">
+        <v>0.03927418207110947</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>4.6422255</v>
+      </c>
+      <c r="H27">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J27">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.359535</v>
+      </c>
+      <c r="N27">
+        <v>16.078605</v>
+      </c>
+      <c r="O27">
+        <v>0.02395917067475312</v>
+      </c>
+      <c r="P27">
+        <v>0.02531149588087277</v>
+      </c>
+      <c r="Q27">
+        <v>24.8801700451425</v>
+      </c>
+      <c r="R27">
+        <v>149.281020270855</v>
+      </c>
+      <c r="S27">
+        <v>0.01167754724456346</v>
+      </c>
+      <c r="T27">
+        <v>0.01051506923303483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4.6422255</v>
+      </c>
+      <c r="H28">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J28">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>63.82578633333333</v>
+      </c>
+      <c r="N28">
+        <v>191.477359</v>
+      </c>
+      <c r="O28">
+        <v>0.2853256687773582</v>
+      </c>
+      <c r="P28">
+        <v>0.3014302785352894</v>
+      </c>
+      <c r="Q28">
+        <v>296.2936928741515</v>
+      </c>
+      <c r="R28">
+        <v>1777.762157244909</v>
+      </c>
+      <c r="S28">
+        <v>0.1390659143617707</v>
+      </c>
+      <c r="T28">
+        <v>0.125222162398023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>4.6422255</v>
+      </c>
+      <c r="H29">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J29">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>93.36864199999998</v>
+      </c>
+      <c r="N29">
+        <v>280.105926</v>
+      </c>
+      <c r="O29">
+        <v>0.4173935293543045</v>
+      </c>
+      <c r="P29">
+        <v>0.4409524328856299</v>
+      </c>
+      <c r="Q29">
+        <v>433.4382907927709</v>
+      </c>
+      <c r="R29">
+        <v>2600.629744756626</v>
+      </c>
+      <c r="S29">
+        <v>0.2034349487624825</v>
+      </c>
+      <c r="T29">
+        <v>0.1831833796820888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>4.60861637058564</v>
-      </c>
-      <c r="H25">
-        <v>4.60861637058564</v>
-      </c>
-      <c r="I25">
-        <v>0.5038626228382687</v>
-      </c>
-      <c r="J25">
-        <v>0.5038626228382687</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>5.78317521597262</v>
-      </c>
-      <c r="N25">
-        <v>5.78317521597262</v>
-      </c>
-      <c r="O25">
-        <v>0.02642249781673602</v>
-      </c>
-      <c r="P25">
-        <v>0.02642249781673602</v>
-      </c>
-      <c r="Q25">
-        <v>26.65243597429656</v>
-      </c>
-      <c r="R25">
-        <v>26.65243597429656</v>
-      </c>
-      <c r="S25">
-        <v>0.01331330905187904</v>
-      </c>
-      <c r="T25">
-        <v>0.01331330905187904</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>4.6422255</v>
+      </c>
+      <c r="H30">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J30">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>25.286359</v>
+      </c>
+      <c r="N30">
+        <v>75.859077</v>
+      </c>
+      <c r="O30">
+        <v>0.1130396930002472</v>
+      </c>
+      <c r="P30">
+        <v>0.1194199817093778</v>
+      </c>
+      <c r="Q30">
+        <v>117.3849805519545</v>
+      </c>
+      <c r="R30">
+        <v>704.309883311727</v>
+      </c>
+      <c r="S30">
+        <v>0.05509482667162214</v>
+      </c>
+      <c r="T30">
+        <v>0.04961023960779683</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>4.6422255</v>
+      </c>
+      <c r="H31">
+        <v>9.284451000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.487393633239093</v>
+      </c>
+      <c r="J31">
+        <v>0.4154266220583506</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.8270905</v>
+      </c>
+      <c r="N31">
+        <v>11.654181</v>
+      </c>
+      <c r="O31">
+        <v>0.0260493225301696</v>
+      </c>
+      <c r="P31">
+        <v>0.01834641465328899</v>
+      </c>
+      <c r="Q31">
+        <v>27.05066810990775</v>
+      </c>
+      <c r="R31">
+        <v>108.202672439631</v>
+      </c>
+      <c r="S31">
+        <v>0.01269627395139632</v>
+      </c>
+      <c r="T31">
+        <v>0.007621589066297673</v>
       </c>
     </row>
   </sheetData>
